--- a/data/trans_orig/IP25B01_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25B01_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FE3653D-8D7E-4E03-9927-B4CD722D09CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A167A15C-5F42-403D-BE49-728B16789BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A7B67E26-0839-418F-B671-67F87C473102}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{713973C2-F7CF-4F7E-A0F7-BEBDDA77E950}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
   <si>
     <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos entre semana / solo 2023 en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 3h</t>
@@ -83,13 +83,13 @@
     <t>4,03%</t>
   </si>
   <si>
-    <t>23,57%</t>
+    <t>20,51%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>10,68%</t>
+    <t>13,26%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
@@ -98,631 +98,628 @@
     <t>15,28%</t>
   </si>
   <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>De 1 a 2h</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>15,12%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>10,64%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>38,08%</t>
   </si>
   <si>
-    <t>31,16%</t>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
   </si>
   <si>
     <t>44,33%</t>
   </si>
   <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
   </si>
   <si>
     <t>36,9%</t>
   </si>
   <si>
-    <t>43,25%</t>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>8,71%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>39,78%</t>
   </si>
   <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>39,74%</t>
   </si>
   <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>37,18%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1137,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED89B929-A228-40F7-9E8A-BF285CA6E333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC3B12B-3725-4940-9FC9-DCDAA00C6459}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1683,7 +1680,7 @@
         <v>79</v>
       </c>
       <c r="I12" s="7">
-        <v>44407</v>
+        <v>44408</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>80</v>
@@ -1734,7 +1731,7 @@
         <v>165</v>
       </c>
       <c r="I13" s="7">
-        <v>101992</v>
+        <v>101993</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>48</v>
@@ -1790,13 +1787,13 @@
         <v>9449</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -1805,13 +1802,13 @@
         <v>25086</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,13 +1823,13 @@
         <v>33444</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
@@ -1841,13 +1838,13 @@
         <v>30962</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>80</v>
@@ -1856,13 +1853,13 @@
         <v>64406</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1874,13 @@
         <v>113761</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -1892,13 +1889,13 @@
         <v>72676</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>251</v>
@@ -1907,13 +1904,13 @@
         <v>186436</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1925,13 @@
         <v>86221</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -1943,13 +1940,13 @@
         <v>78088</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -1958,13 +1955,13 @@
         <v>164308</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2017,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2032,13 +2029,13 @@
         <v>20576</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>28</v>
@@ -2047,13 +2044,13 @@
         <v>27801</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>49</v>
@@ -2062,13 +2059,13 @@
         <v>48377</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2080,13 @@
         <v>30544</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -2098,13 +2095,13 @@
         <v>23505</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>69</v>
@@ -2113,13 +2110,13 @@
         <v>54049</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,13 +2131,13 @@
         <v>64107</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>88</v>
@@ -2149,13 +2146,13 @@
         <v>63681</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>163</v>
@@ -2164,13 +2161,13 @@
         <v>127788</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2182,13 @@
         <v>53789</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -2200,13 +2197,13 @@
         <v>47513</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>157</v>
@@ -2215,13 +2212,13 @@
         <v>101301</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2274,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2289,13 +2286,13 @@
         <v>11512</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>11</v>
@@ -2304,13 +2301,13 @@
         <v>7351</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>24</v>
@@ -2319,13 +2316,13 @@
         <v>18863</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,13 +2337,13 @@
         <v>19063</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -2355,13 +2352,13 @@
         <v>25220</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>15</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -2370,13 +2367,13 @@
         <v>44283</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2388,13 @@
         <v>66224</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -2406,13 +2403,13 @@
         <v>72662</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>185</v>
@@ -2421,13 +2418,13 @@
         <v>138886</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2439,13 @@
         <v>77092</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>88</v>
@@ -2457,10 +2454,10 @@
         <v>61539</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>190</v>
@@ -2546,13 +2543,13 @@
         <v>67397</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>61</v>
@@ -2561,13 +2558,13 @@
         <v>50848</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M29" s="7">
         <v>128</v>
@@ -2576,13 +2573,13 @@
         <v>118246</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2594,13 @@
         <v>102024</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H30" s="7">
         <v>121</v>
@@ -2612,13 +2609,13 @@
         <v>93136</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M30" s="7">
         <v>253</v>
@@ -2627,13 +2624,13 @@
         <v>195160</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2645,13 @@
         <v>285585</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H31" s="7">
         <v>366</v>
@@ -2663,13 +2660,13 @@
         <v>253951</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M31" s="7">
         <v>730</v>
@@ -2678,13 +2675,13 @@
         <v>539535</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2696,13 @@
         <v>264257</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H32" s="7">
         <v>371</v>
@@ -2714,13 +2711,13 @@
         <v>240456</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M32" s="7">
         <v>776</v>
@@ -2729,13 +2726,13 @@
         <v>504713</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2788,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25B01_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP25B01_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A167A15C-5F42-403D-BE49-728B16789BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B439A7AA-11C9-480E-A14E-DC11C7D85D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{713973C2-F7CF-4F7E-A0F7-BEBDDA77E950}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{966FFAEE-8C5A-40BD-AB1B-9336627B1678}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
   <si>
     <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos entre semana / solo 2023 en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,661 +65,553 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Más de 3h</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
   </si>
   <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>38,49%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1134,8 +1026,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC3B12B-3725-4940-9FC9-DCDAA00C6459}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7448D0D5-5A2D-47E6-93FA-C88391256C2F}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1252,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6449</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1267,187 +1159,187 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>643</v>
+        <v>27935</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7">
-        <v>643</v>
+        <v>34384</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>1941</v>
+        <v>12314</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>1501</v>
+        <v>20117</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="N5" s="7">
-        <v>3442</v>
+        <v>32431</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D6" s="7">
-        <v>3972</v>
+        <v>43009</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="I6" s="7">
-        <v>4899</v>
+        <v>41994</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="N6" s="7">
-        <v>8871</v>
+        <v>85003</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="D7" s="7">
-        <v>6785</v>
+        <v>52830</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="I7" s="7">
-        <v>8909</v>
+        <v>50366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="N7" s="7">
-        <v>15695</v>
+        <v>103196</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,255 +1348,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>12698</v>
+        <v>114602</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I8" s="7">
-        <v>15952</v>
+        <v>140412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>46</v>
+        <v>363</v>
       </c>
       <c r="N8" s="7">
-        <v>28650</v>
+        <v>255014</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>19673</v>
+        <v>9339</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7">
-        <v>5603</v>
+        <v>16474</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N9" s="7">
-        <v>25276</v>
+        <v>25813</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>17033</v>
+        <v>29129</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>11948</v>
+        <v>34240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="N10" s="7">
-        <v>28981</v>
+        <v>63369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="D11" s="7">
-        <v>37520</v>
+        <v>69732</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="I11" s="7">
-        <v>40034</v>
+        <v>113394</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="N11" s="7">
-        <v>77553</v>
+        <v>183126</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>40370</v>
+        <v>81134</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="I12" s="7">
-        <v>44408</v>
+        <v>89788</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="N12" s="7">
-        <v>84777</v>
+        <v>170922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,246 +1605,246 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="D13" s="7">
-        <v>114596</v>
+        <v>189334</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="I13" s="7">
-        <v>101993</v>
+        <v>253896</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>317</v>
+        <v>617</v>
       </c>
       <c r="N13" s="7">
-        <v>216588</v>
+        <v>443230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>15637</v>
+        <v>45572</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>9449</v>
+        <v>21436</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N14" s="7">
-        <v>25086</v>
+        <v>67008</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7">
-        <v>33444</v>
+        <v>25617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
       </c>
       <c r="I15" s="7">
-        <v>30962</v>
+        <v>31595</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="N15" s="7">
-        <v>64406</v>
+        <v>57212</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>113761</v>
+        <v>65375</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="I16" s="7">
-        <v>72676</v>
+        <v>70087</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="N16" s="7">
-        <v>186436</v>
+        <v>135462</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>86221</v>
+        <v>47583</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="I17" s="7">
-        <v>78088</v>
+        <v>57559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>118</v>
       </c>
       <c r="M17" s="7">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="N17" s="7">
-        <v>164308</v>
+        <v>105142</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>119</v>
@@ -1970,49 +1862,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>340</v>
+        <v>217</v>
       </c>
       <c r="D18" s="7">
-        <v>249062</v>
+        <v>184147</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="I18" s="7">
-        <v>191175</v>
+        <v>180677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>617</v>
+        <v>438</v>
       </c>
       <c r="N18" s="7">
-        <v>440236</v>
+        <v>364824</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,10 +1915,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>20576</v>
+        <v>7331</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>123</v>
@@ -2038,10 +1930,10 @@
         <v>125</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>27801</v>
+        <v>12017</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>126</v>
@@ -2053,46 +1945,46 @@
         <v>128</v>
       </c>
       <c r="M19" s="7">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>48377</v>
+        <v>19348</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7">
-        <v>30544</v>
+        <v>24781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>133</v>
       </c>
       <c r="H20" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>23505</v>
+        <v>20066</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>134</v>
@@ -2104,10 +1996,10 @@
         <v>136</v>
       </c>
       <c r="M20" s="7">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="N20" s="7">
-        <v>54049</v>
+        <v>44847</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>137</v>
@@ -2122,13 +2014,13 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D21" s="7">
-        <v>64107</v>
+        <v>69849</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>140</v>
@@ -2140,10 +2032,10 @@
         <v>142</v>
       </c>
       <c r="H21" s="7">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I21" s="7">
-        <v>63681</v>
+        <v>68355</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>143</v>
@@ -2155,10 +2047,10 @@
         <v>145</v>
       </c>
       <c r="M21" s="7">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="N21" s="7">
-        <v>127788</v>
+        <v>138204</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>146</v>
@@ -2173,13 +2065,13 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7">
-        <v>53789</v>
+        <v>60950</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>149</v>
@@ -2191,10 +2083,10 @@
         <v>151</v>
       </c>
       <c r="H22" s="7">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="I22" s="7">
-        <v>47513</v>
+        <v>79637</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>152</v>
@@ -2206,10 +2098,10 @@
         <v>154</v>
       </c>
       <c r="M22" s="7">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="N22" s="7">
-        <v>101301</v>
+        <v>140587</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>155</v>
@@ -2227,255 +2119,255 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D23" s="7">
-        <v>169016</v>
+        <v>162912</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="I23" s="7">
-        <v>162500</v>
+        <v>180075</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="N23" s="7">
-        <v>331516</v>
+        <v>342986</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7">
-        <v>11512</v>
+        <v>68690</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>67</v>
+      </c>
+      <c r="I24" s="7">
+        <v>77863</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="7">
-        <v>11</v>
-      </c>
-      <c r="I24" s="7">
-        <v>7351</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>128</v>
+      </c>
+      <c r="N24" s="7">
+        <v>146553</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="M24" s="7">
-        <v>24</v>
-      </c>
-      <c r="N24" s="7">
-        <v>18863</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="D25" s="7">
-        <v>19063</v>
+        <v>91842</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>132</v>
+      </c>
+      <c r="I25" s="7">
+        <v>106017</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H25" s="7">
-        <v>33</v>
-      </c>
-      <c r="I25" s="7">
-        <v>25220</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="7">
+        <v>253</v>
+      </c>
+      <c r="N25" s="7">
+        <v>197859</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M25" s="7">
-        <v>59</v>
-      </c>
-      <c r="N25" s="7">
-        <v>44283</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>84</v>
+        <v>366</v>
       </c>
       <c r="D26" s="7">
-        <v>66224</v>
+        <v>247965</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>364</v>
+      </c>
+      <c r="I26" s="7">
+        <v>293829</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H26" s="7">
-        <v>101</v>
-      </c>
-      <c r="I26" s="7">
-        <v>72662</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>730</v>
+      </c>
+      <c r="N26" s="7">
+        <v>541795</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M26" s="7">
-        <v>185</v>
-      </c>
-      <c r="N26" s="7">
-        <v>138886</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>113</v>
+        <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>77092</v>
+        <v>242497</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7">
+        <v>405</v>
+      </c>
+      <c r="I27" s="7">
+        <v>277350</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="7">
-        <v>88</v>
-      </c>
-      <c r="I27" s="7">
-        <v>61539</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>776</v>
+      </c>
+      <c r="N27" s="7">
+        <v>519847</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M27" s="7">
-        <v>201</v>
-      </c>
-      <c r="N27" s="7">
-        <v>138631</v>
-      </c>
-      <c r="O27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,319 +2376,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>236</v>
+        <v>919</v>
       </c>
       <c r="D28" s="7">
-        <v>173891</v>
+        <v>650994</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>233</v>
+        <v>968</v>
       </c>
       <c r="I28" s="7">
-        <v>166772</v>
+        <v>755060</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M28" s="7">
-        <v>469</v>
+        <v>1887</v>
       </c>
       <c r="N28" s="7">
-        <v>340664</v>
+        <v>1406055</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>67</v>
-      </c>
-      <c r="D29" s="7">
-        <v>67397</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="H29" s="7">
-        <v>61</v>
-      </c>
-      <c r="I29" s="7">
-        <v>50848</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M29" s="7">
-        <v>128</v>
-      </c>
-      <c r="N29" s="7">
-        <v>118246</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7">
-        <v>132</v>
-      </c>
-      <c r="D30" s="7">
-        <v>102024</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30" s="7">
-        <v>121</v>
-      </c>
-      <c r="I30" s="7">
-        <v>93136</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M30" s="7">
-        <v>253</v>
-      </c>
-      <c r="N30" s="7">
-        <v>195160</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="7">
-        <v>364</v>
-      </c>
-      <c r="D31" s="7">
-        <v>285585</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="7">
-        <v>366</v>
-      </c>
-      <c r="I31" s="7">
-        <v>253951</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M31" s="7">
-        <v>730</v>
-      </c>
-      <c r="N31" s="7">
-        <v>539535</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="7">
-        <v>405</v>
-      </c>
-      <c r="D32" s="7">
-        <v>264257</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H32" s="7">
-        <v>371</v>
-      </c>
-      <c r="I32" s="7">
-        <v>240456</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="M32" s="7">
-        <v>776</v>
-      </c>
-      <c r="N32" s="7">
-        <v>504713</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>968</v>
-      </c>
-      <c r="D33" s="7">
-        <v>719263</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="7">
-        <v>919</v>
-      </c>
-      <c r="I33" s="7">
-        <v>638391</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M33" s="7">
-        <v>1887</v>
-      </c>
-      <c r="N33" s="7">
-        <v>1357654</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>228</v>
+      <c r="A29" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
